--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_122__Reeval_LHS_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_122__Reeval_LHS_Modell_1.3.xlsx
@@ -5873,7 +5873,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>70.21492004394531</c:v>
+                  <c:v>70.21491241455078</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>67.37041473388672</c:v>
@@ -5885,25 +5885,25 @@
                   <c:v>65.27477264404297</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66.75640106201172</c:v>
+                  <c:v>66.75639343261719</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69.93753814697266</c:v>
+                  <c:v>69.93753051757812</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>58.92676544189453</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68.27007293701172</c:v>
+                  <c:v>68.27006530761719</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>55.3603515625</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>68.30665588378906</c:v>
+                  <c:v>68.30666351318359</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73.69042205810547</c:v>
+                  <c:v>73.69041442871094</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>66.65225982666016</c:v>
@@ -5912,10 +5912,10 @@
                   <c:v>68.61557769775391</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>68.26450347900391</c:v>
+                  <c:v>68.26448822021484</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>63.35665130615234</c:v>
+                  <c:v>63.35665893554688</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>66.89319610595703</c:v>
@@ -5924,7 +5924,7 @@
                   <c:v>65.80963134765625</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>65.80915069580078</c:v>
+                  <c:v>65.80915832519531</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>65.62234497070312</c:v>
@@ -5933,7 +5933,7 @@
                   <c:v>69.80169677734375</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>63.77146911621094</c:v>
+                  <c:v>63.77147674560547</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>64.87672424316406</c:v>
@@ -5954,40 +5954,40 @@
                   <c:v>71.01425933837891</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>64.64860534667969</c:v>
+                  <c:v>64.64862060546875</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>68.90322113037109</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>66.47846221923828</c:v>
+                  <c:v>66.47846984863281</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>65.29199981689453</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>64.91808319091797</c:v>
+                  <c:v>64.9180908203125</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>65.90859222412109</c:v>
+                  <c:v>65.90859985351562</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>66.36018371582031</c:v>
+                  <c:v>66.36019134521484</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>58.78595733642578</c:v>
+                  <c:v>58.78594970703125</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>59.91904449462891</c:v>
+                  <c:v>59.91905212402344</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>72.62893676757812</c:v>
+                  <c:v>72.62892913818359</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>64.21720123291016</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>67.94686889648438</c:v>
+                  <c:v>67.94686126708984</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>68.14118194580078</c:v>
@@ -5996,7 +5996,7 @@
                   <c:v>71.17346954345703</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>62.25108337402344</c:v>
+                  <c:v>62.25109100341797</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>54.17433166503906</c:v>
@@ -6011,40 +6011,40 @@
                   <c:v>69.54916381835938</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>68.34728240966797</c:v>
+                  <c:v>68.34726715087891</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>66.52277374267578</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>71.84259796142578</c:v>
+                  <c:v>71.84260559082031</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>66.28699493408203</c:v>
+                  <c:v>66.28700256347656</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>67.30892944335938</c:v>
+                  <c:v>67.30892181396484</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>70.75066375732422</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>70.41887664794922</c:v>
+                  <c:v>70.41888427734375</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>71.43075561523438</c:v>
+                  <c:v>71.43074798583984</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>71.84828186035156</c:v>
+                  <c:v>71.8482666015625</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>66.73911285400391</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>67.51493072509766</c:v>
+                  <c:v>67.51493835449219</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>61.03044128417969</c:v>
+                  <c:v>61.03044891357422</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>61.23976135253906</c:v>
@@ -6056,13 +6056,13 @@
                   <c:v>70.78532409667969</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>65.50019836425781</c:v>
+                  <c:v>65.50019073486328</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>62.89266967773438</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>61.07295989990234</c:v>
+                  <c:v>61.07295227050781</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>70.74327850341797</c:v>
@@ -6071,13 +6071,13 @@
                   <c:v>71.80084228515625</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>64.86827087402344</c:v>
+                  <c:v>64.86827850341797</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>65.91016387939453</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>60.81766510009766</c:v>
+                  <c:v>60.81767272949219</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>66.14940643310547</c:v>
@@ -6086,22 +6086,22 @@
                   <c:v>63.91709899902344</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>70.31236267089844</c:v>
+                  <c:v>70.31235504150391</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>68.76366424560547</c:v>
+                  <c:v>68.76365661621094</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>67.94800567626953</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>63.35853576660156</c:v>
+                  <c:v>63.35854339599609</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>63.28617858886719</c:v>
+                  <c:v>63.28617095947266</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>62.31398773193359</c:v>
+                  <c:v>62.31400299072266</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>73.41902923583984</c:v>
@@ -6110,7 +6110,7 @@
                   <c:v>72.56228637695312</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>62.63490295410156</c:v>
+                  <c:v>62.63489532470703</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>67.93740081787109</c:v>
@@ -6137,7 +6137,7 @@
                   <c:v>65.78933715820312</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>73.05876159667969</c:v>
+                  <c:v>73.05875396728516</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>63.48388671875</c:v>
@@ -6149,22 +6149,22 @@
                   <c:v>61.33762359619141</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>72.55333709716797</c:v>
+                  <c:v>72.55332946777344</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>66.04165649414062</c:v>
+                  <c:v>66.04164886474609</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>66.19670867919922</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>69.60340118408203</c:v>
+                  <c:v>69.6033935546875</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>66.9307861328125</c:v>
+                  <c:v>66.93077850341797</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>66.63481140136719</c:v>
+                  <c:v>66.63480377197266</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6859,7 +6859,7 @@
         <v>73.39830000000001</v>
       </c>
       <c r="F2">
-        <v>70.21492004394531</v>
+        <v>70.21491241455078</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6987,7 +6987,7 @@
         <v>71.60080000000001</v>
       </c>
       <c r="F6">
-        <v>66.75640106201172</v>
+        <v>66.75639343261719</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>87.6867</v>
       </c>
       <c r="F7">
-        <v>69.93753814697266</v>
+        <v>69.93753051757812</v>
       </c>
       <c r="G7">
         <v>99</v>
@@ -7071,7 +7071,7 @@
         <v>73.1687</v>
       </c>
       <c r="F9">
-        <v>68.27007293701172</v>
+        <v>68.27006530761719</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7111,7 +7111,7 @@
         <v>73.7132</v>
       </c>
       <c r="F11">
-        <v>68.30665588378906</v>
+        <v>68.30666351318359</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7131,7 +7131,7 @@
         <v>71.7625</v>
       </c>
       <c r="F12">
-        <v>73.69042205810547</v>
+        <v>73.69041442871094</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>51.3815</v>
       </c>
       <c r="F15">
-        <v>68.26450347900391</v>
+        <v>68.26448822021484</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>70.16200000000001</v>
       </c>
       <c r="F16">
-        <v>63.35665130615234</v>
+        <v>63.35665893554688</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>69.9408</v>
       </c>
       <c r="F19">
-        <v>65.80915069580078</v>
+        <v>65.80915832519531</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>76.97450000000001</v>
       </c>
       <c r="F22">
-        <v>63.77146911621094</v>
+        <v>63.77147674560547</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>75.6429</v>
       </c>
       <c r="F29">
-        <v>64.64860534667969</v>
+        <v>64.64862060546875</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>73.812</v>
       </c>
       <c r="F31">
-        <v>66.47846221923828</v>
+        <v>66.47846984863281</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>55.7118</v>
       </c>
       <c r="F33">
-        <v>64.91808319091797</v>
+        <v>64.9180908203125</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>86.2996</v>
       </c>
       <c r="F34">
-        <v>65.90859222412109</v>
+        <v>65.90859985351562</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>51.6055</v>
       </c>
       <c r="F35">
-        <v>66.36018371582031</v>
+        <v>66.36019134521484</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>68.4312</v>
       </c>
       <c r="F36">
-        <v>58.78595733642578</v>
+        <v>58.78594970703125</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>90.173</v>
       </c>
       <c r="F37">
-        <v>59.91904449462891</v>
+        <v>59.91905212402344</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>59.0932</v>
       </c>
       <c r="F38">
-        <v>72.62893676757812</v>
+        <v>72.62892913818359</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>90.7071</v>
       </c>
       <c r="F40">
-        <v>67.94686889648438</v>
+        <v>67.94686126708984</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>79.9358</v>
       </c>
       <c r="F43">
-        <v>62.25108337402344</v>
+        <v>62.25109100341797</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>65.1785</v>
       </c>
       <c r="F48">
-        <v>68.34728240966797</v>
+        <v>68.34726715087891</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>70.9816</v>
       </c>
       <c r="F50">
-        <v>71.84259796142578</v>
+        <v>71.84260559082031</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>63.4987</v>
       </c>
       <c r="F51">
-        <v>66.28699493408203</v>
+        <v>66.28700256347656</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>68.0436</v>
       </c>
       <c r="F52">
-        <v>67.30892944335938</v>
+        <v>67.30892181396484</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>44.0149</v>
       </c>
       <c r="F54">
-        <v>70.41887664794922</v>
+        <v>70.41888427734375</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>52.6674</v>
       </c>
       <c r="F55">
-        <v>71.43075561523438</v>
+        <v>71.43074798583984</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>50.2989</v>
       </c>
       <c r="F56">
-        <v>71.84828186035156</v>
+        <v>71.8482666015625</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>81.81910000000001</v>
       </c>
       <c r="F58">
-        <v>67.51493072509766</v>
+        <v>67.51493835449219</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>54.8399</v>
       </c>
       <c r="F59">
-        <v>61.03044128417969</v>
+        <v>61.03044891357422</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>43.8297</v>
       </c>
       <c r="F63">
-        <v>65.50019836425781</v>
+        <v>65.50019073486328</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>70.2961</v>
       </c>
       <c r="F65">
-        <v>61.07295989990234</v>
+        <v>61.07295227050781</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>72.51430000000001</v>
       </c>
       <c r="F68">
-        <v>64.86827087402344</v>
+        <v>64.86827850341797</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>51.1284</v>
       </c>
       <c r="F70">
-        <v>60.81766510009766</v>
+        <v>60.81767272949219</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>83.1452</v>
       </c>
       <c r="F73">
-        <v>70.31236267089844</v>
+        <v>70.31235504150391</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>61.983</v>
       </c>
       <c r="F74">
-        <v>68.76366424560547</v>
+        <v>68.76365661621094</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>64.7649</v>
       </c>
       <c r="F76">
-        <v>63.35853576660156</v>
+        <v>63.35854339599609</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>78.3785</v>
       </c>
       <c r="F77">
-        <v>63.28617858886719</v>
+        <v>63.28617095947266</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>82.36839999999999</v>
       </c>
       <c r="F78">
-        <v>62.31398773193359</v>
+        <v>62.31400299072266</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>87.142</v>
       </c>
       <c r="F81">
-        <v>62.63490295410156</v>
+        <v>62.63489532470703</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>65.8325</v>
       </c>
       <c r="F90">
-        <v>73.05876159667969</v>
+        <v>73.05875396728516</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>40.8326</v>
       </c>
       <c r="F94">
-        <v>72.55333709716797</v>
+        <v>72.55332946777344</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>85.5478</v>
       </c>
       <c r="F95">
-        <v>66.04165649414062</v>
+        <v>66.04164886474609</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>81.25369999999999</v>
       </c>
       <c r="F97">
-        <v>69.60340118408203</v>
+        <v>69.6033935546875</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>69.08</v>
       </c>
       <c r="F98">
-        <v>66.9307861328125</v>
+        <v>66.93077850341797</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>89.25320000000001</v>
       </c>
       <c r="F99">
-        <v>66.63481140136719</v>
+        <v>66.63480377197266</v>
       </c>
     </row>
     <row r="100" spans="1:6">
